--- a/data_year/zb/能源/主要能源品种进、出口量.xlsx
+++ b/data_year/zb/能源/主要能源品种进、出口量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,1453 +548,867 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280.48</v>
+        <v>386</v>
       </c>
       <c r="C2" t="n">
-        <v>161.46</v>
+        <v>1731</v>
       </c>
       <c r="D2" t="n">
-        <v>1031</v>
+        <v>303</v>
       </c>
       <c r="E2" t="n">
-        <v>7027</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>23768</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" t="n">
+        <v>165</v>
+      </c>
       <c r="H2" t="n">
-        <v>55.48</v>
+        <v>464</v>
       </c>
       <c r="I2" t="n">
-        <v>25.94</v>
+        <v>180</v>
       </c>
       <c r="J2" t="n">
-        <v>455.18</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03</v>
+        <v>133</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>93</v>
       </c>
       <c r="M2" t="n">
-        <v>481.74</v>
+        <v>327</v>
       </c>
       <c r="N2" t="n">
-        <v>1520</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11</v>
+      </c>
       <c r="P2" t="n">
-        <v>5505</v>
+        <v>1910</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.88</v>
+        <v>605</v>
       </c>
       <c r="R2" t="n">
-        <v>255.47</v>
+        <v>487</v>
       </c>
       <c r="S2" t="n">
-        <v>212</v>
+        <v>18307</v>
       </c>
       <c r="T2" t="n">
-        <v>33.37</v>
+        <v>990</v>
       </c>
       <c r="U2" t="n">
-        <v>1480</v>
+        <v>2299</v>
       </c>
       <c r="V2" t="n">
-        <v>98.78</v>
+        <v>190.894</v>
       </c>
       <c r="W2" t="n">
-        <v>15.46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.48</v>
+        <v>459</v>
       </c>
       <c r="C3" t="n">
-        <v>201.31</v>
+        <v>1648</v>
       </c>
       <c r="D3" t="n">
-        <v>755</v>
+        <v>252</v>
       </c>
       <c r="E3" t="n">
-        <v>6026</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>25378</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>312</v>
+      </c>
       <c r="H3" t="n">
-        <v>25.62</v>
+        <v>202</v>
       </c>
       <c r="I3" t="n">
-        <v>27.47</v>
+        <v>233</v>
       </c>
       <c r="J3" t="n">
-        <v>572.46</v>
+        <v>406</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02</v>
+        <v>2.9335</v>
       </c>
       <c r="L3" t="n">
-        <v>2.09</v>
+        <v>119</v>
       </c>
       <c r="M3" t="n">
-        <v>488.86</v>
+        <v>350</v>
       </c>
       <c r="N3" t="n">
-        <v>1385</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>330</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
       <c r="P3" t="n">
-        <v>9012</v>
+        <v>1466</v>
       </c>
       <c r="Q3" t="n">
-        <v>182.22</v>
+        <v>656.33</v>
       </c>
       <c r="R3" t="n">
-        <v>201.89</v>
+        <v>618</v>
       </c>
       <c r="S3" t="n">
-        <v>249</v>
+        <v>22236</v>
       </c>
       <c r="T3" t="n">
-        <v>44.09</v>
+        <v>1227</v>
       </c>
       <c r="U3" t="n">
-        <v>1823.6</v>
+        <v>2684</v>
       </c>
       <c r="V3" t="n">
-        <v>101.92</v>
+        <v>193.0726</v>
       </c>
       <c r="W3" t="n">
-        <v>17.98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246</v>
+        <v>328.09</v>
       </c>
       <c r="C4" t="n">
-        <v>384.32</v>
+        <v>1547.58</v>
       </c>
       <c r="D4" t="n">
-        <v>766</v>
+        <v>243</v>
       </c>
       <c r="E4" t="n">
-        <v>6941</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>27103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>420.58</v>
+      </c>
       <c r="H4" t="n">
-        <v>124</v>
+        <v>185.42</v>
       </c>
       <c r="I4" t="n">
-        <v>47.72</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>612</v>
+        <v>291.68</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.6</v>
+        <v>128.23</v>
       </c>
       <c r="M4" t="n">
-        <v>626.16</v>
+        <v>358.51</v>
       </c>
       <c r="N4" t="n">
-        <v>1357</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>102</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.6</v>
+      </c>
       <c r="P4" t="n">
-        <v>8384</v>
+        <v>928</v>
       </c>
       <c r="Q4" t="n">
-        <v>170</v>
+        <v>745.0599999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>214.53</v>
+        <v>620.84</v>
       </c>
       <c r="S4" t="n">
-        <v>1081</v>
+        <v>28841.12</v>
       </c>
       <c r="T4" t="n">
-        <v>64</v>
+        <v>1161.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1659.66</v>
+        <v>2683.18</v>
       </c>
       <c r="V4" t="n">
-        <v>97</v>
+        <v>176.53</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>68.73999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.84</v>
+        <v>315.19</v>
       </c>
       <c r="C5" t="n">
-        <v>432.14</v>
+        <v>1924.05</v>
       </c>
       <c r="D5" t="n">
-        <v>813.33</v>
+        <v>161.73</v>
       </c>
       <c r="E5" t="n">
-        <v>9102.01</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>28174.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>525.43656</v>
+      </c>
       <c r="H5" t="n">
-        <v>224</v>
+        <v>278.16</v>
       </c>
       <c r="I5" t="n">
-        <v>84.84999999999999</v>
+        <v>26.87</v>
       </c>
       <c r="J5" t="n">
-        <v>754.24</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>468.73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>126.92</v>
       </c>
       <c r="M5" t="n">
-        <v>636.74</v>
+        <v>451.73</v>
       </c>
       <c r="N5" t="n">
-        <v>1472.11</v>
+        <v>467.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0.17</v>
+        <v>3.48</v>
       </c>
       <c r="P5" t="n">
-        <v>9402.889999999999</v>
+        <v>750.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>201.69</v>
+        <v>917.49</v>
       </c>
       <c r="R5" t="n">
-        <v>210.27</v>
+        <v>668.97</v>
       </c>
       <c r="S5" t="n">
-        <v>1109.77</v>
+        <v>32701.77</v>
       </c>
       <c r="T5" t="n">
-        <v>76.14</v>
+        <v>1134.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2395.45</v>
+        <v>2347.02</v>
       </c>
       <c r="V5" t="n">
-        <v>103.39</v>
+        <v>186.69</v>
       </c>
       <c r="W5" t="n">
-        <v>29.8</v>
+        <v>74.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.68</v>
+        <v>342.41</v>
       </c>
       <c r="C6" t="n">
-        <v>384.21</v>
+        <v>1677.16</v>
       </c>
       <c r="D6" t="n">
-        <v>549.16</v>
+        <v>60.02</v>
       </c>
       <c r="E6" t="n">
-        <v>12272</v>
+        <v>30837.39</v>
       </c>
       <c r="F6" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>26.09</v>
+      </c>
+      <c r="G6" t="n">
+        <v>591.3</v>
+      </c>
       <c r="H6" t="n">
-        <v>63.65</v>
+        <v>410.47</v>
       </c>
       <c r="I6" t="n">
-        <v>274.92</v>
+        <v>47.37</v>
       </c>
       <c r="J6" t="n">
-        <v>540.71</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>507.53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.38</v>
+      </c>
       <c r="L6" t="n">
-        <v>3.19</v>
+        <v>144.42</v>
       </c>
       <c r="M6" t="n">
-        <v>641</v>
+        <v>739.39</v>
       </c>
       <c r="N6" t="n">
-        <v>1501.2</v>
+        <v>850.74</v>
       </c>
       <c r="O6" t="n">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="P6" t="n">
-        <v>8666.360000000001</v>
+        <v>574.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>205</v>
+        <v>1066.5</v>
       </c>
       <c r="R6" t="n">
-        <v>282</v>
+        <v>414.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1861.4</v>
+        <v>29121.99</v>
       </c>
       <c r="T6" t="n">
-        <v>181.69</v>
+        <v>947.6900000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>3059.22</v>
+        <v>1784.56</v>
       </c>
       <c r="V6" t="n">
-        <v>94.76000000000001</v>
+        <v>181.58</v>
       </c>
       <c r="W6" t="n">
-        <v>34</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473</v>
+        <v>348.14</v>
       </c>
       <c r="C7" t="n">
-        <v>443.4</v>
+        <v>2083.38</v>
       </c>
       <c r="D7" t="n">
-        <v>806.7</v>
+        <v>286.56</v>
       </c>
       <c r="E7" t="n">
-        <v>12681.7</v>
+        <v>33548.28</v>
       </c>
       <c r="F7" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>32.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>611.4</v>
+      </c>
       <c r="H7" t="n">
-        <v>147.6</v>
+        <v>716.25</v>
       </c>
       <c r="I7" t="n">
-        <v>53.2</v>
+        <v>42.8</v>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>589.29</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.03</v>
+      </c>
       <c r="L7" t="n">
-        <v>2.7</v>
+        <v>144.15</v>
       </c>
       <c r="M7" t="n">
-        <v>617</v>
+        <v>1243.95</v>
       </c>
       <c r="N7" t="n">
-        <v>1276.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5</v>
-      </c>
+        <v>964.8200000000001</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>7172.4</v>
+        <v>533.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>268.7</v>
+        <v>1237.33</v>
       </c>
       <c r="R7" t="n">
-        <v>328.3</v>
+        <v>348.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2617.1</v>
+        <v>20406.48</v>
       </c>
       <c r="T7" t="n">
-        <v>230</v>
+        <v>1051.69</v>
       </c>
       <c r="U7" t="n">
-        <v>2608.6</v>
+        <v>1540.4</v>
       </c>
       <c r="V7" t="n">
-        <v>111.9</v>
+        <v>186.5</v>
       </c>
       <c r="W7" t="n">
-        <v>50.1</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>472.99</v>
+        <v>366.72</v>
       </c>
       <c r="C8" t="n">
-        <v>443.36</v>
+        <v>2066.94</v>
       </c>
       <c r="D8" t="n">
-        <v>633.72</v>
+        <v>294</v>
       </c>
       <c r="E8" t="n">
-        <v>14517</v>
+        <v>38101</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>34.15</v>
       </c>
       <c r="G8" t="n">
-        <v>9.5</v>
+        <v>745.6</v>
       </c>
       <c r="H8" t="n">
-        <v>77.58</v>
+        <v>1540.25</v>
       </c>
       <c r="I8" t="n">
-        <v>70.52</v>
+        <v>91.56</v>
       </c>
       <c r="J8" t="n">
-        <v>351</v>
+        <v>969</v>
       </c>
       <c r="K8" t="n">
-        <v>6.09</v>
+        <v>20.77</v>
       </c>
       <c r="L8" t="n">
-        <v>15.1</v>
+        <v>132.33</v>
       </c>
       <c r="M8" t="n">
-        <v>535.5599999999999</v>
+        <v>1678.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.75</v>
+        <v>1012</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>6327.3</v>
+        <v>879</v>
       </c>
       <c r="Q8" t="n">
-        <v>371.09</v>
+        <v>1309.95</v>
       </c>
       <c r="R8" t="n">
-        <v>560.89</v>
+        <v>352.14</v>
       </c>
       <c r="S8" t="n">
-        <v>3810.5</v>
+        <v>25555</v>
       </c>
       <c r="T8" t="n">
-        <v>258.07</v>
+        <v>985.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2799.33</v>
+        <v>1174.39</v>
       </c>
       <c r="V8" t="n">
-        <v>122.7</v>
+        <v>189.07</v>
       </c>
       <c r="W8" t="n">
-        <v>53.9</v>
+        <v>61.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>416.15</v>
+        <v>338</v>
       </c>
       <c r="C9" t="n">
-        <v>688.9</v>
+        <v>2396</v>
       </c>
       <c r="D9" t="n">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="E9" t="n">
-        <v>16316.01</v>
+        <v>41946</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>40.2</v>
+        <v>946</v>
       </c>
       <c r="H9" t="n">
-        <v>66.05</v>
+        <v>1719</v>
       </c>
       <c r="I9" t="n">
-        <v>162.14</v>
+        <v>75</v>
       </c>
       <c r="J9" t="n">
-        <v>464.27</v>
+        <v>1051</v>
       </c>
       <c r="K9" t="n">
-        <v>22.7</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>33.8</v>
+        <v>132</v>
       </c>
       <c r="M9" t="n">
-        <v>405.43</v>
+        <v>1922</v>
       </c>
       <c r="N9" t="n">
-        <v>1529.93</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>808</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" t="n">
-        <v>5317</v>
+        <v>802</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.07</v>
+        <v>1313</v>
       </c>
       <c r="R9" t="n">
-        <v>524.34</v>
+        <v>376</v>
       </c>
       <c r="S9" t="n">
-        <v>5101.59</v>
+        <v>27092</v>
       </c>
       <c r="T9" t="n">
-        <v>379.72</v>
+        <v>1109</v>
       </c>
       <c r="U9" t="n">
-        <v>2417.07</v>
+        <v>1357</v>
       </c>
       <c r="V9" t="n">
-        <v>145.66</v>
+        <v>195</v>
       </c>
       <c r="W9" t="n">
-        <v>42.51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.64</v>
+        <v>400.3028502</v>
       </c>
       <c r="C10" t="n">
-        <v>665.97</v>
+        <v>2592.1576313</v>
       </c>
       <c r="D10" t="n">
-        <v>424</v>
+        <v>262.6588016</v>
       </c>
       <c r="E10" t="n">
-        <v>17888</v>
+        <v>46188.5462839</v>
       </c>
       <c r="F10" t="n">
-        <v>32.45</v>
+        <v>33.6299974368</v>
       </c>
       <c r="G10" t="n">
-        <v>46.04</v>
+        <v>1246.3686834846</v>
       </c>
       <c r="H10" t="n">
-        <v>63.05</v>
+        <v>1853.2443041</v>
       </c>
       <c r="I10" t="n">
-        <v>624.45</v>
+        <v>71.1179728</v>
       </c>
       <c r="J10" t="n">
-        <v>203.35</v>
+        <v>1287.9350781</v>
       </c>
       <c r="K10" t="n">
-        <v>198.69</v>
+        <v>44.543459</v>
       </c>
       <c r="L10" t="n">
-        <v>67.84999999999999</v>
+        <v>113.4653634</v>
       </c>
       <c r="M10" t="n">
-        <v>259.24</v>
+        <v>1966.4386125</v>
       </c>
       <c r="N10" t="n">
-        <v>1221</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>975.8361312</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.09</v>
+      </c>
       <c r="P10" t="n">
-        <v>4543</v>
+        <v>493.6242403</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.4400000000001</v>
+        <v>1467.010761</v>
       </c>
       <c r="R10" t="n">
-        <v>647.8</v>
+        <v>412.6518565</v>
       </c>
       <c r="S10" t="n">
-        <v>4034</v>
+        <v>28209.7886492</v>
       </c>
       <c r="T10" t="n">
-        <v>731.66</v>
+        <v>1229.9503408</v>
       </c>
       <c r="U10" t="n">
-        <v>2186.08</v>
+        <v>1665.624142</v>
       </c>
       <c r="V10" t="n">
-        <v>166.4444</v>
+        <v>209.06324038</v>
       </c>
       <c r="W10" t="n">
-        <v>38.42</v>
+        <v>56.88237399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>305.43</v>
+        <v>375.41</v>
       </c>
       <c r="C11" t="n">
-        <v>1153.21</v>
+        <v>2288.47</v>
       </c>
       <c r="D11" t="n">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>20365</v>
+        <v>50568</v>
       </c>
       <c r="F11" t="n">
-        <v>32.09</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>76.34</v>
+        <v>1332</v>
       </c>
       <c r="H11" t="n">
-        <v>450.71</v>
+        <v>2138</v>
       </c>
       <c r="I11" t="n">
-        <v>183.64</v>
+        <v>119</v>
       </c>
       <c r="J11" t="n">
-        <v>491.9</v>
+        <v>1637</v>
       </c>
       <c r="K11" t="n">
-        <v>4.44</v>
+        <v>33</v>
       </c>
       <c r="L11" t="n">
-        <v>84.89</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
-        <v>408.03</v>
+        <v>2109</v>
       </c>
       <c r="N11" t="n">
-        <v>54</v>
+        <v>652</v>
       </c>
       <c r="O11" t="n">
-        <v>15.92</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>2240</v>
+        <v>603</v>
       </c>
       <c r="Q11" t="n">
-        <v>594.16</v>
+        <v>1761</v>
       </c>
       <c r="R11" t="n">
-        <v>611.85</v>
+        <v>367</v>
       </c>
       <c r="S11" t="n">
-        <v>12584</v>
+        <v>29977</v>
       </c>
       <c r="T11" t="n">
-        <v>862.41</v>
+        <v>1118</v>
       </c>
       <c r="U11" t="n">
-        <v>2407.2</v>
+        <v>1486</v>
       </c>
       <c r="V11" t="n">
-        <v>173.86</v>
+        <v>217</v>
       </c>
       <c r="W11" t="n">
-        <v>60.06</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="C12" t="n">
-        <v>1731</v>
+        <v>2606</v>
       </c>
       <c r="D12" t="n">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="E12" t="n">
-        <v>23768</v>
+        <v>54201</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G12" t="n">
-        <v>165</v>
+        <v>1397</v>
       </c>
       <c r="H12" t="n">
-        <v>464</v>
+        <v>1976</v>
       </c>
       <c r="I12" t="n">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="J12" t="n">
-        <v>517</v>
+        <v>1600</v>
       </c>
       <c r="K12" t="n">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="L12" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M12" t="n">
-        <v>327</v>
+        <v>2005</v>
       </c>
       <c r="N12" t="n">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="O12" t="n">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="P12" t="n">
-        <v>1910</v>
+        <v>319</v>
       </c>
       <c r="Q12" t="n">
-        <v>605</v>
+        <v>997</v>
       </c>
       <c r="R12" t="n">
-        <v>487</v>
+        <v>266</v>
       </c>
       <c r="S12" t="n">
-        <v>16310</v>
+        <v>30361</v>
       </c>
       <c r="T12" t="n">
-        <v>990</v>
+        <v>1583</v>
       </c>
       <c r="U12" t="n">
-        <v>2299</v>
+        <v>1253</v>
       </c>
       <c r="V12" t="n">
-        <v>190.894</v>
+        <v>218</v>
       </c>
       <c r="W12" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>459</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1648</v>
-      </c>
-      <c r="D13" t="n">
-        <v>252</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>25378</v>
-      </c>
-      <c r="F13" t="n">
-        <v>32</v>
-      </c>
-      <c r="G13" t="n">
-        <v>312</v>
-      </c>
-      <c r="H13" t="n">
-        <v>202</v>
-      </c>
-      <c r="I13" t="n">
-        <v>233</v>
-      </c>
-      <c r="J13" t="n">
-        <v>406</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>119</v>
-      </c>
-      <c r="M13" t="n">
-        <v>350</v>
-      </c>
+        <v>51292</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>330</v>
-      </c>
-      <c r="O13" t="n">
-        <v>12</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>1466</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>656.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>618</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>22220</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1227</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2684</v>
-      </c>
-      <c r="V13" t="n">
-        <v>193</v>
-      </c>
-      <c r="W13" t="n">
-        <v>66</v>
-      </c>
+        <v>32294</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>328.09</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1547.58</v>
-      </c>
-      <c r="D14" t="n">
-        <v>243</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>27103</v>
-      </c>
-      <c r="F14" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>420.58</v>
-      </c>
-      <c r="H14" t="n">
-        <v>185.42</v>
-      </c>
-      <c r="I14" t="n">
-        <v>90.93000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>291.68</v>
-      </c>
+        <v>50828</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>128.23</v>
-      </c>
-      <c r="M14" t="n">
-        <v>358.51</v>
-      </c>
-      <c r="N14" t="n">
-        <v>102</v>
-      </c>
-      <c r="O14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="P14" t="n">
-        <v>928</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>745.0599999999999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>620.84</v>
-      </c>
-      <c r="S14" t="n">
-        <v>28841</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1161.69</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2683.18</v>
-      </c>
-      <c r="V14" t="n">
-        <v>176.53</v>
-      </c>
-      <c r="W14" t="n">
-        <v>68.73999999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>315</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1924</v>
-      </c>
-      <c r="D15" t="n">
-        <v>162</v>
-      </c>
-      <c r="E15" t="n">
-        <v>28174</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27</v>
-      </c>
-      <c r="G15" t="n">
-        <v>525</v>
-      </c>
-      <c r="H15" t="n">
-        <v>278</v>
-      </c>
-      <c r="I15" t="n">
-        <v>27</v>
-      </c>
-      <c r="J15" t="n">
-        <v>469</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>35</v>
-      </c>
-      <c r="M15" t="n">
-        <v>452</v>
-      </c>
-      <c r="N15" t="n">
-        <v>467</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>751</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>917</v>
-      </c>
-      <c r="R15" t="n">
-        <v>669</v>
-      </c>
-      <c r="S15" t="n">
-        <v>32702</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1135</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2347</v>
-      </c>
-      <c r="V15" t="n">
-        <v>187</v>
-      </c>
-      <c r="W15" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>343</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1677.16</v>
-      </c>
-      <c r="D16" t="n">
-        <v>60.0193262</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30837.4527391</v>
-      </c>
-      <c r="F16" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="G16" t="n">
-        <v>591.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>410.47</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47.37</v>
-      </c>
-      <c r="J16" t="n">
-        <v>507.53</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="L16" t="n">
-        <v>144.42</v>
-      </c>
-      <c r="M16" t="n">
-        <v>739.39</v>
-      </c>
-      <c r="N16" t="n">
-        <v>850.7112605</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P16" t="n">
-        <v>574.1546904</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1066.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>414.12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>29120.0629277</v>
-      </c>
-      <c r="T16" t="n">
-        <v>947.6900000000001</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1784.56</v>
-      </c>
-      <c r="V16" t="n">
-        <v>181.58</v>
-      </c>
-      <c r="W16" t="n">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>348</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2063</v>
-      </c>
-      <c r="D17" t="n">
-        <v>286.5567368</v>
-      </c>
-      <c r="E17" t="n">
-        <v>33550.0304734</v>
-      </c>
-      <c r="F17" t="n">
-        <v>33</v>
-      </c>
-      <c r="G17" t="n">
-        <v>611</v>
-      </c>
-      <c r="H17" t="n">
-        <v>716</v>
-      </c>
-      <c r="I17" t="n">
-        <v>43</v>
-      </c>
-      <c r="J17" t="n">
-        <v>589</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17</v>
-      </c>
-      <c r="L17" t="n">
-        <v>144</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1244</v>
-      </c>
-      <c r="N17" t="n">
-        <v>985.4067939</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>533.3677887</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1237</v>
-      </c>
-      <c r="R17" t="n">
-        <v>348</v>
-      </c>
-      <c r="S17" t="n">
-        <v>20406.176189</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1052</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1540</v>
-      </c>
-      <c r="V17" t="n">
-        <v>187</v>
-      </c>
-      <c r="W17" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>367</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2067</v>
-      </c>
-      <c r="D18" t="n">
-        <v>294</v>
-      </c>
-      <c r="E18" t="n">
-        <v>38101</v>
-      </c>
-      <c r="F18" t="n">
-        <v>34</v>
-      </c>
-      <c r="G18" t="n">
-        <v>746</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1540</v>
-      </c>
-      <c r="I18" t="n">
-        <v>92</v>
-      </c>
-      <c r="J18" t="n">
-        <v>969</v>
-      </c>
-      <c r="K18" t="n">
-        <v>21</v>
-      </c>
-      <c r="L18" t="n">
-        <v>132</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1679</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1012</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>879</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1310</v>
-      </c>
-      <c r="R18" t="n">
-        <v>352</v>
-      </c>
-      <c r="S18" t="n">
-        <v>25543</v>
-      </c>
-      <c r="T18" t="n">
-        <v>986</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1174</v>
-      </c>
-      <c r="V18" t="n">
-        <v>189</v>
-      </c>
-      <c r="W18" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>338</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2396</v>
-      </c>
-      <c r="D19" t="n">
-        <v>486</v>
-      </c>
-      <c r="E19" t="n">
-        <v>41957</v>
-      </c>
-      <c r="F19" t="n">
-        <v>35</v>
-      </c>
-      <c r="G19" t="n">
-        <v>946</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1719</v>
-      </c>
-      <c r="I19" t="n">
-        <v>75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1051</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>132</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1922</v>
-      </c>
-      <c r="N19" t="n">
-        <v>809</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>817</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1313</v>
-      </c>
-      <c r="R19" t="n">
-        <v>376</v>
-      </c>
-      <c r="S19" t="n">
-        <v>27090</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1109</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1357</v>
-      </c>
-      <c r="V19" t="n">
-        <v>195</v>
-      </c>
-      <c r="W19" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2592</v>
-      </c>
-      <c r="D20" t="n">
-        <v>263</v>
-      </c>
-      <c r="E20" t="n">
-        <v>46189</v>
-      </c>
-      <c r="F20" t="n">
-        <v>34</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1246</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1853</v>
-      </c>
-      <c r="I20" t="n">
-        <v>71</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1288</v>
-      </c>
-      <c r="K20" t="n">
-        <v>45</v>
-      </c>
-      <c r="L20" t="n">
-        <v>113</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1966</v>
-      </c>
-      <c r="N20" t="n">
-        <v>976</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9</v>
-      </c>
-      <c r="P20" t="n">
-        <v>493</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1467</v>
-      </c>
-      <c r="R20" t="n">
-        <v>413</v>
-      </c>
-      <c r="S20" t="n">
-        <v>28189</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1230</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1666</v>
-      </c>
-      <c r="V20" t="n">
-        <v>209</v>
-      </c>
-      <c r="W20" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>375</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2288</v>
-      </c>
-      <c r="D21" t="n">
-        <v>81.0025936</v>
-      </c>
-      <c r="E21" t="n">
-        <v>50567.6037748</v>
-      </c>
-      <c r="F21" t="n">
-        <v>36</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1332</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2138</v>
-      </c>
-      <c r="I21" t="n">
-        <v>119</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1637</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33</v>
-      </c>
-      <c r="L21" t="n">
-        <v>141</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2109</v>
-      </c>
-      <c r="N21" t="n">
-        <v>652.259178</v>
-      </c>
-      <c r="O21" t="n">
-        <v>52</v>
-      </c>
-      <c r="P21" t="n">
-        <v>602.5057259</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1761</v>
-      </c>
-      <c r="R21" t="n">
-        <v>367</v>
-      </c>
-      <c r="S21" t="n">
-        <v>29952.4540585</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1118</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1486</v>
-      </c>
-      <c r="V21" t="n">
-        <v>217</v>
-      </c>
-      <c r="W21" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>54200.6694298</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>349.2104222</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>319.0726</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>30331.0600711</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
